--- a/ELF_Base_Framework/src/test/resources/testData/testData.xlsx
+++ b/ELF_Base_Framework/src/test/resources/testData/testData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DADDF3-1E78-4156-9253-1B32880AA031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,111 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>TC_Register_001</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>sharoon</t>
-  </si>
-  <si>
-    <t>rozario</t>
-  </si>
-  <si>
-    <t>prem</t>
-  </si>
-  <si>
-    <t>choudhary</t>
-  </si>
-  <si>
-    <t>yogitha</t>
-  </si>
-  <si>
-    <t>belavanaki</t>
-  </si>
-  <si>
-    <t>aishwarya</t>
-  </si>
-  <si>
-    <t>bk</t>
-  </si>
-  <si>
-    <t>vyshali</t>
-  </si>
-  <si>
-    <t>suresh babu</t>
-  </si>
-  <si>
-    <t>renuka</t>
-  </si>
-  <si>
-    <t>prasad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pradyumna </t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>sharoon@gmail.com</t>
-  </si>
-  <si>
-    <t>prem@gmail.com</t>
-  </si>
-  <si>
-    <t>renuka@gmail.com</t>
-  </si>
-  <si>
-    <t>pradyumna@gmail.com</t>
-  </si>
-  <si>
-    <t>rozario#123</t>
-  </si>
-  <si>
-    <t>choudhary#123</t>
-  </si>
-  <si>
-    <t>belavanaki#123</t>
-  </si>
-  <si>
-    <t>bk#123</t>
-  </si>
-  <si>
-    <t>suresh babu#123</t>
-  </si>
-  <si>
-    <t>prasad#123</t>
-  </si>
-  <si>
-    <t>r#123</t>
-  </si>
-  <si>
-    <t>yogitha@gmail.com</t>
-  </si>
-  <si>
-    <t>aishwarya@gmaill.com</t>
-  </si>
-  <si>
-    <t>vyshali@gmail.com</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,12 +346,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,177 +360,28 @@
     <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>